--- a/MMS/Defect Report/Monitor View/Monitor_View V1.0.xlsx
+++ b/MMS/Defect Report/Monitor View/Monitor_View V1.0.xlsx
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>designe102</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>designe102:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+PENDING</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Release/Build #</t>
   </si>
@@ -43,13 +77,99 @@
   </si>
   <si>
     <t xml:space="preserve">Login: Unable to connect . Please try again later message is displayed </t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Dashboard&gt;Recent Monitor:
+"No recent monitors" showing after uploading a monitor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to snapooh monitor &gt; capture&gt;choose category(indoor)&gt;auto&gt;link monitor .
+2. Upload a monitor 
+3. go to monitor view &gt;dash board&gt;Recent monitor:
+4. Refresh the page.
+Actual: "No recent monitors"  message is displayed.
+Expected: It should update a i monitor is updated
+</t>
+  </si>
+  <si>
+    <t>Dashboard&gt;Recent Monitor: last 10 recently monitors are not updated</t>
+  </si>
+  <si>
+    <t>Notification:Notification is not deliverd for another mobile account login as same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to snapooh monitor &gt; capture&gt;choose category(indoor)&gt;auto&gt;link monitor .
+2. Upload a monitor .
+3. Login with same account with the different mobiles.
+Actual: Only who as uploaded a monitor , he is only getting the notification.
+Expected: It should get the notification for the both the accounts.
+</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Login: Not accessible to the another account for the Monitordemo@snapooh.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.open the monitor view app.
+3. enter the valid user name and password.
+4. Click on login.
+Actual: "Unable to connect . Please try again later" message is displayed </t>
+  </si>
+  <si>
+    <t>1.Select data network as 3g or 2G .
+2.open the monitor view app.
+3. enter the valid user name and password.
+4. Click on login.
+Actual: "Unable to connect . Please try again later" message is displayed 
+Expected: It should allow to login with the different data plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open a monitor view.
+2. login with valid details
+Actual: recent monitors are not update.
+Expected: It should update the last updated 10 monitors
+</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Notification: Inbox view is not displayed when clicking on notifications</t>
+  </si>
+  <si>
+    <t>Notification:Two monitor view notifications are displayed for the single monitor</t>
+  </si>
+  <si>
+    <t>1. Go to snapooh monitor and upload a monitor.
+2. click on notification .
+Actual:Dash board is displayed
+Expected: It should display a Inbox view page</t>
+  </si>
+  <si>
+    <t>1. Go to snapooh monitor and upload a monitor.
+Actual: Two monitor view notifications are displayed.
+Expected:It should display a single notification for single uploaded monitor.</t>
+  </si>
+  <si>
+    <t>Inbox View: Empty screen is displayed.</t>
+  </si>
+  <si>
+    <t>1. Go to Dashboard.
+2. Select today from the date picker.
+3. Click on view inbox.
+Actual: Empty screen of Inbox view is displayed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,20 +186,26 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -118,13 +250,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -420,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -434,34 +571,34 @@
     <col min="4" max="4" width="28.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="31.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="141.75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>42149</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -469,11 +606,166 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="204.75">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="126">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="189">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="94.5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="94.5">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="126">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>42149</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/MMS/Defect Report/Monitor View/Monitor_View V1.0.xlsx
+++ b/MMS/Defect Report/Monitor View/Monitor_View V1.0.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/MMS/Defect Report/Monitor View/Monitor_View V1.0.xlsx
+++ b/MMS/Defect Report/Monitor View/Monitor_View V1.0.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BUILD-3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Release/Build #</t>
   </si>
@@ -163,6 +163,33 @@
 2. Select today from the date picker.
 3. Click on view inbox.
 Actual: Empty screen of Inbox view is displayed.</t>
+  </si>
+  <si>
+    <t>Share: Shared monitor images count is displayed as 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Inbox details&gt; Share.
+2. Select Select a images.
+3. Enter a valid email id (info@gmail.com)
+4. Click on submit button.
+5. Go to shared account (info@gmail.com)
+6. Monitor view&gt;Inbox&gt;shared monitor.
+Actual : Shared Image count showing 0
+Expected: Count of shared images should display correctly.
+</t>
+  </si>
+  <si>
+    <t>Recent monitors: Linked or unlinked medias are not updating.</t>
+  </si>
+  <si>
+    <t>1. Go to web app monitor view &gt;inbox.
+2. Select a monitor(recently monitored and unlinked) .
+3. click on link now (media) and link the monitor.
+4. Go to monitor view app &gt; dashboard&gt;Recent Monitor.
+5. Refresh or scroll down the recent monitors.
+Actual: The monitors in the recent monitor screen is not updated.
+Expected: It should be update to the unlinked to linked monitor.
+Note : Same bug for Alerts, Tags and Notes.</t>
   </si>
 </sst>
 </file>
@@ -559,9 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -771,12 +796,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="189">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42174</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="267.75">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42174</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
